--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC31_Verify_login.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC31_Verify_login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665AA8D-6DFE-41D0-AA00-FBDC7955CAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CCC356-37EE-4341-8049-DD026B9D5987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>TestCase</t>
   </si>
@@ -89,15 +89,6 @@
     <t>TC31_Verify_login</t>
   </si>
   <si>
-    <t>Uname1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>LoginButton1</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
@@ -108,6 +99,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -524,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -578,76 +575,74 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
@@ -655,27 +650,29 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -683,12 +680,25 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -724,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -732,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -740,7 +750,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -970,18 +980,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,18 +1014,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC31_Verify_login.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC31_Verify_login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CCC356-37EE-4341-8049-DD026B9D5987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED182EC-34CF-4477-8F50-87BA9AB4FE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,22 @@
     <sheet name="TC31_Verify_login" sheetId="1" r:id="rId1"/>
     <sheet name="Testdata" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>TestCase</t>
   </si>
@@ -92,19 +102,31 @@
     <t>$BaseURL</t>
   </si>
   <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>MOUSEOVER</t>
+  </si>
+  <si>
     <t>$Registered_Username</t>
   </si>
   <si>
     <t>$Registered_Password</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>LoginURL</t>
-  </si>
-  <si>
-    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -521,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -568,14 +590,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -585,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -601,13 +623,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -616,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -628,14 +650,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -650,29 +672,27 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -680,25 +700,12 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -709,7 +716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B4"/>
@@ -742,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -750,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -775,6 +782,22 @@
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -783,6 +806,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -979,22 +1017,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1011,21 +1051,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>